--- a/biology/Médecine/Élisabeth_Zucman/Élisabeth_Zucman.xlsx
+++ b/biology/Médecine/Élisabeth_Zucman/Élisabeth_Zucman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Zucman</t>
+          <t>Élisabeth_Zucman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élisabeth Zucman, née Fraenkel, est un médecin de rééducation et de réadaptation fonctionnelle française, née le 11 août 1930 et décédée le 15 septembre 2019 à Paris[1]. Elle consacre l'essentiel de sa carrière aux personnes polyhandicapées. Elle est connue pour avoir contribué à l'émergence du terme "polyhandicap" en France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élisabeth Zucman, née Fraenkel, est un médecin de rééducation et de réadaptation fonctionnelle française, née le 11 août 1930 et décédée le 15 septembre 2019 à Paris. Elle consacre l'essentiel de sa carrière aux personnes polyhandicapées. Elle est connue pour avoir contribué à l'émergence du terme "polyhandicap" en France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Zucman</t>
+          <t>Élisabeth_Zucman</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élisabeth Zucman est un médecin de rééducation et de réadaptation fonctionnelle française, née le 11 août 1930 à Paris et décédée le 14 septembre 2019 à Paris. À partir de 1950 elle entame des études de médecine et en 1961, elle suit une spécialité nouvelle en France (médecine de rééducation et réadaptation fonctionnelle). Elle exerce au Nicaragua, en Angleterre et aux États-Unis puis revient en France[2],[3],[4]. 
-En 1965, elle contribue, avec le Docteur Stanislas Tomkiewicz[5], les professeurs Clément Launay, pédopsychiatre, Alexandre Minkowski, néonataliste et Stéphane Thieffry, neuropédiatre à la fondation du CESAP (Comité d’Études, d’Éducation et de Soins Auprès des Personnes Polyhandicapées) et en est sa première directrice médicale[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élisabeth Zucman est un médecin de rééducation et de réadaptation fonctionnelle française, née le 11 août 1930 à Paris et décédée le 14 septembre 2019 à Paris. À partir de 1950 elle entame des études de médecine et en 1961, elle suit une spécialité nouvelle en France (médecine de rééducation et réadaptation fonctionnelle). Elle exerce au Nicaragua, en Angleterre et aux États-Unis puis revient en France. 
+En 1965, elle contribue, avec le Docteur Stanislas Tomkiewicz, les professeurs Clément Launay, pédopsychiatre, Alexandre Minkowski, néonataliste et Stéphane Thieffry, neuropédiatre à la fondation du CESAP (Comité d’Études, d’Éducation et de Soins Auprès des Personnes Polyhandicapées) et en est sa première directrice médicale,.
 En 1974, elle, devient conseillère technique du CTNERHI (Centre Technique national d'études et de recherches sur les handicaps et les inadaptations, aujourd'hui MSSH).
-Elle était par ailleurs, Présidente d'honneur du GPF (Groupe Polyhandicap France) puis Présidente Honoraire[8], Présidente d'honneur de l'association "les tout-petits"[9], membre du Haut Conseil Scientifique et Pédagogique de la Fédération des APAJH (Association Pour Adultes et Jeunes Handicapés)[4], Professeur honoraire du CNEFEI de Suresnes (1985 - 1992, aujourd'hui INSHEA), membre du Conseil Scientifique de OSE (Œuvre de Secours aux Enfants).
-Elle aide à l'émergence du terme "polyhandicap" (le substituant à la notion de "arriéré profond"). C'est notamment son article "la guidance parentale", dans le numéro 159 de la revue "Réadaptation" (avril 1969), qu'en tant que "secrétaire générale du CESAP", qu'apparait de manière officielle l'une des premières occurrences du terme "polyhandicap"[4],[10].Elle est la mère de Jessica Zucman-Rossi, professeur des universités-praticien hospitalier, ainsi que la grand-mère de l’économiste Gabriel Zucman.
+Elle était par ailleurs, Présidente d'honneur du GPF (Groupe Polyhandicap France) puis Présidente Honoraire, Présidente d'honneur de l'association "les tout-petits", membre du Haut Conseil Scientifique et Pédagogique de la Fédération des APAJH (Association Pour Adultes et Jeunes Handicapés), Professeur honoraire du CNEFEI de Suresnes (1985 - 1992, aujourd'hui INSHEA), membre du Conseil Scientifique de OSE (Œuvre de Secours aux Enfants).
+Elle aide à l'émergence du terme "polyhandicap" (le substituant à la notion de "arriéré profond"). C'est notamment son article "la guidance parentale", dans le numéro 159 de la revue "Réadaptation" (avril 1969), qu'en tant que "secrétaire générale du CESAP", qu'apparait de manière officielle l'une des premières occurrences du terme "polyhandicap",.Elle est la mère de Jessica Zucman-Rossi, professeur des universités-praticien hospitalier, ainsi que la grand-mère de l’économiste Gabriel Zucman.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Zucman</t>
+          <t>Élisabeth_Zucman</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Chevalier de la Légion d'Honneur[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chevalier de la Légion d'Honneur.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Zucman</t>
+          <t>Élisabeth_Zucman</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Publications[12]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« L’émergence de la personne polyhandicapée dans les années 1960 : les premiers développements de sa prise en considération », dans Philippe CAMBERLEIN, Gérard PONSOT (dir.), La personne polyhandicapée. La connaître, l’accompagner, la soigner, Paris, Dunod, coll. « Guides Santé.Social », 2021 (ISBN 978-2-10-082036-8).
 Prendre soin de ceux qui ne guériront pas : La médecine questionnée par l'incurabilité et la fin de vie, Toulouse, ERES, coll. « L'age et la vie », 2016a (ISBN 978-2-7492-4992-6).358p.
